--- a/projects/project1/models/checkpoints/unet_train-2.xlsx
+++ b/projects/project1/models/checkpoints/unet_train-2.xlsx
@@ -8,18 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\medical-image-analysis\projects\project1\models\checkpoints\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97B82FC-6AE7-4887-9967-143AA7FA532F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D3B9D9-B9ED-4879-B826-A9A3D30109DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$C$2:$C$502</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$G$2:$G$502</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$H$2:$H$502</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -17223,7 +17218,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.39949400714349642"/>
+          <c:x val="0.40682807388350378"/>
           <c:y val="0.90226647562256501"/>
           <c:w val="0.27435253761596634"/>
           <c:h val="5.0167569335221304E-2"/>
@@ -18982,8 +18977,8 @@
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>80963</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19011,14 +19006,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>33338</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -19048,16 +19043,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1152525</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>127907</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>138113</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>251732</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19410,8 +19405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K502"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H40" workbookViewId="0">
-      <selection activeCell="M71" sqref="M71"/>
+    <sheetView tabSelected="1" topLeftCell="B452" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H502" sqref="H502"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
